--- a/prodinfo/mea/sa/output/res20260109.xlsx
+++ b/prodinfo/mea/sa/output/res20260109.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-09 09:36:08</v>
+        <v>2026-01-09 11:54:13</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-09 09:36:15</v>
+        <v>2026-01-09 11:54:23</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-09 09:36:25</v>
+        <v>2026-01-09 11:54:32</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-09 09:36:35</v>
+        <v>2026-01-09 11:54:38</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-09 09:36:44</v>
+        <v>2026-01-09 11:54:48</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-09 09:36:53</v>
+        <v>2026-01-09 11:54:55</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-09 09:37:06</v>
+        <v>2026-01-09 11:55:02</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-09 09:37:15</v>
+        <v>2026-01-09 11:55:14</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-09 09:37:19</v>
+        <v>2026-01-09 11:55:21</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-09 09:37:29</v>
+        <v>2026-01-09 11:55:26</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-09 09:37:39</v>
+        <v>2026-01-09 11:55:36</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-09 09:37:44</v>
+        <v>2026-01-09 11:55:42</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-09 09:37:52</v>
+        <v>2026-01-09 11:55:49</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-09 09:37:57</v>
+        <v>2026-01-09 11:55:57</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-09 09:38:03</v>
+        <v>2026-01-09 11:56:02</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-09 09:38:10</v>
+        <v>2026-01-09 11:56:14</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-09 09:38:19</v>
+        <v>2026-01-09 11:56:21</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-09 09:38:24</v>
+        <v>2026-01-09 11:56:28</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-09 09:38:30</v>
+        <v>2026-01-09 11:56:39</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-09 09:38:41</v>
+        <v>2026-01-09 11:56:49</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-09 09:38:45</v>
+        <v>2026-01-09 11:56:55</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-01-09 09:38:49</v>
+        <v>2026-01-09 11:57:05</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-01-09 09:38:54</v>
+        <v>2026-01-09 11:57:12</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-01-09 09:39:01</v>
+        <v>2026-01-09 11:57:16</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-01-09 09:39:07</v>
+        <v>2026-01-09 11:57:21</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-01-09 09:39:14</v>
+        <v>2026-01-09 11:57:28</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-01-09 09:39:20</v>
+        <v>2026-01-09 11:57:37</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-01-09 09:39:29</v>
+        <v>2026-01-09 11:57:44</v>
       </c>
       <c r="B29" t="str">
         <v>沙特</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-01-09 09:39:37</v>
+        <v>2026-01-09 11:57:52</v>
       </c>
       <c r="B30" t="str">
         <v>沙特</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-01-09 09:39:49</v>
+        <v>2026-01-09 11:57:57</v>
       </c>
       <c r="B31" t="str">
         <v>沙特</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-01-09 09:39:56</v>
+        <v>2026-01-09 11:58:02</v>
       </c>
       <c r="B32" t="str">
         <v>沙特</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2026-01-09 09:40:03</v>
+        <v>2026-01-09 11:58:12</v>
       </c>
       <c r="B33" t="str">
         <v>沙特</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2026-01-09 09:40:12</v>
+        <v>2026-01-09 11:58:21</v>
       </c>
       <c r="B34" t="str">
         <v>沙特</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2026-01-09 09:40:23</v>
+        <v>2026-01-09 11:58:30</v>
       </c>
       <c r="B35" t="str">
         <v>沙特</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2026-01-09 09:40:32</v>
+        <v>2026-01-09 11:58:42</v>
       </c>
       <c r="B36" t="str">
         <v>沙特</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2026-01-09 09:40:42</v>
+        <v>2026-01-09 11:58:46</v>
       </c>
       <c r="B37" t="str">
         <v>沙特</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2026-01-09 09:40:50</v>
+        <v>2026-01-09 11:58:56</v>
       </c>
       <c r="B38" t="str">
         <v>沙特</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-01-09 09:40:56</v>
+        <v>2026-01-09 11:59:01</v>
       </c>
       <c r="B39" t="str">
         <v>沙特</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-01-09 09:41:03</v>
+        <v>2026-01-09 11:59:12</v>
       </c>
       <c r="B40" t="str">
         <v>沙特</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-01-09 09:41:09</v>
+        <v>2026-01-09 11:59:21</v>
       </c>
       <c r="B41" t="str">
         <v>沙特</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-01-09 09:41:16</v>
+        <v>2026-01-09 11:59:27</v>
       </c>
       <c r="B42" t="str">
         <v>沙特</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-01-09 09:41:22</v>
+        <v>2026-01-09 11:59:32</v>
       </c>
       <c r="B43" t="str">
         <v>沙特</v>
@@ -1393,720 +1393,720 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-01-09 09:41:34</v>
+        <v>2026-01-09 11:59:38</v>
       </c>
       <c r="B44" t="str">
         <v>沙特</v>
       </c>
       <c r="C44" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D44" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666653.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</v>
       </c>
       <c r="E44" t="str">
-        <v>APPLE Apple Watch SE 3 Starlight 40mm</v>
+        <v>SAMSUNG S24 Ultra 12+256</v>
       </c>
       <c r="F44" t="str">
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>1147</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-01-09 09:41:44</v>
+        <v>2026-01-09 11:59:44</v>
       </c>
       <c r="B45" t="str">
         <v>沙特</v>
       </c>
       <c r="C45" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D45" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</v>
+        <v>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666653.html</v>
       </c>
       <c r="E45" t="str">
-        <v>SAMSUNG S24 Ultra 12+256</v>
+        <v>APPLE Apple Watch SE 3 Starlight 40mm</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>3099</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-01-09 09:41:55</v>
+        <v>2026-01-09 11:59:51</v>
       </c>
       <c r="B46" t="str">
         <v>沙特</v>
       </c>
       <c r="C46" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D46" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666630.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</v>
       </c>
       <c r="E46" t="str">
-        <v>APPLE Apple Watch SE 3 Starlight 44mm</v>
+        <v>SAMSUNG S24 Ultra 12+512</v>
       </c>
       <c r="F46" t="str">
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>1069</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-01-09 09:42:05</v>
+        <v>2026-01-09 12:00:01</v>
       </c>
       <c r="B47" t="str">
         <v>沙特</v>
       </c>
       <c r="C47" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D47" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</v>
+        <v>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666630.html</v>
       </c>
       <c r="E47" t="str">
-        <v>SAMSUNG S24 Ultra 12+512</v>
+        <v>APPLE Apple Watch SE 3 Starlight 44mm</v>
       </c>
       <c r="F47" t="str">
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>3399</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2026-01-09 09:42:15</v>
+        <v>2026-01-09 12:00:09</v>
       </c>
       <c r="B48" t="str">
         <v>沙特</v>
       </c>
       <c r="C48" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D48" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666622.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</v>
       </c>
       <c r="E48" t="str">
-        <v>APPLE Apple Watch SE 3 Midnight 40mm</v>
+        <v>SAMSUNG S25 12+128</v>
       </c>
       <c r="F48" t="str">
         <v/>
       </c>
       <c r="G48" t="str">
-        <v>956</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2026-01-09 09:42:20</v>
+        <v>2026-01-09 12:00:16</v>
       </c>
       <c r="B49" t="str">
         <v>沙特</v>
       </c>
       <c r="C49" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D49" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</v>
+        <v>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666622.html</v>
       </c>
       <c r="E49" t="str">
-        <v>SAMSUNG S25 12+128</v>
+        <v>APPLE Apple Watch SE 3 Midnight 40mm</v>
       </c>
       <c r="F49" t="str">
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>2399</v>
+        <v>956</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2026-01-09 09:42:42</v>
+        <v>2026-01-09 12:00:25</v>
       </c>
       <c r="B50" t="str">
         <v>沙特</v>
       </c>
       <c r="C50" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D50" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666639.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</v>
       </c>
       <c r="E50" t="str">
-        <v>APPLE Apple Watch SE 3 Midnight 44mm</v>
+        <v>SAMSUNG S25 12+256</v>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>1069</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2026-01-09 09:42:54</v>
+        <v>2026-01-09 12:00:33</v>
       </c>
       <c r="B51" t="str">
         <v>沙特</v>
       </c>
       <c r="C51" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D51" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</v>
+        <v>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666639.html</v>
       </c>
       <c r="E51" t="str">
-        <v>SAMSUNG S25 12+256</v>
+        <v>APPLE Apple Watch SE 3 Midnight 44mm</v>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>2599</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2026-01-09 09:43:02</v>
+        <v>2026-01-09 12:00:44</v>
       </c>
       <c r="B52" t="str">
         <v>沙特</v>
       </c>
       <c r="C52" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D52" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-series-11-46mm-smartwatch-666701.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
       </c>
       <c r="E52" t="str">
-        <v>APPLE Apple Watch Series 11 Purple 46mm</v>
+        <v>SAMSUNG S25 FE 8+256</v>
       </c>
       <c r="F52" t="str">
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>0</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2026-01-09 09:43:11</v>
+        <v>2026-01-09 12:00:54</v>
       </c>
       <c r="B53" t="str">
         <v>沙特</v>
       </c>
       <c r="C53" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D53" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
+        <v>https://www.jarir.com/sa-en/apple-watch-series-11-46mm-smartwatch-666701.html</v>
       </c>
       <c r="E53" t="str">
-        <v>SAMSUNG S25 FE 8+256</v>
+        <v>APPLE Apple Watch Series 11 Purple 46mm</v>
       </c>
       <c r="F53" t="str">
         <v/>
       </c>
       <c r="G53" t="str">
-        <v>2399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2026-01-09 09:43:24</v>
+        <v>2026-01-09 12:01:05</v>
       </c>
       <c r="B54" t="str">
         <v>沙特</v>
       </c>
       <c r="C54" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D54" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-series-11-42-smartwatch-666631.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</v>
       </c>
       <c r="E54" t="str">
-        <v>APPLE Apple Watch Series 11 Black 42mm</v>
+        <v>SAMSUNG S25 Plus 12+256</v>
       </c>
       <c r="F54" t="str">
         <v/>
       </c>
       <c r="G54" t="str">
-        <v>1912</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2026-01-09 09:43:29</v>
+        <v>2026-01-09 12:01:10</v>
       </c>
       <c r="B55" t="str">
         <v>沙特</v>
       </c>
       <c r="C55" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D55" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</v>
+        <v>https://www.jarir.com/sa-en/apple-watch-series-11-42-smartwatch-666631.html</v>
       </c>
       <c r="E55" t="str">
-        <v>SAMSUNG S25 Plus 12+256</v>
+        <v>APPLE Apple Watch Series 11 Black 42mm</v>
       </c>
       <c r="F55" t="str">
         <v/>
       </c>
       <c r="G55" t="str">
-        <v>3299</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2026-01-09 09:43:36</v>
+        <v>2026-01-09 12:01:17</v>
       </c>
       <c r="B56" t="str">
         <v>沙特</v>
       </c>
       <c r="C56" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D56" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-series-11-46-smartwatch-666641.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</v>
       </c>
       <c r="E56" t="str">
-        <v>APPLE Apple Watch Series 11 Black 46mm</v>
+        <v>SAMSUNG S25 Plus 12+512</v>
       </c>
       <c r="F56" t="str">
         <v/>
       </c>
       <c r="G56" t="str">
-        <v>1677</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2026-01-09 09:43:46</v>
+        <v>2026-01-09 12:01:29</v>
       </c>
       <c r="B57" t="str">
         <v>沙特</v>
       </c>
       <c r="C57" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D57" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</v>
+        <v>https://www.jarir.com/sa-en/apple-watch-series-11-46-smartwatch-666641.html</v>
       </c>
       <c r="E57" t="str">
-        <v>SAMSUNG S25 Plus 12+512</v>
+        <v>APPLE Apple Watch Series 11 Black 46mm</v>
       </c>
       <c r="F57" t="str">
         <v/>
       </c>
       <c r="G57" t="str">
-        <v>3999</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2026-01-09 09:44:02</v>
+        <v>2026-01-09 12:01:35</v>
       </c>
       <c r="B58" t="str">
         <v>沙特</v>
       </c>
       <c r="C58" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D58" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-ultra-3-smartwatch-666649.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</v>
       </c>
       <c r="E58" t="str">
-        <v>APPLE Apple Watch Ultra 3 Black 49mm</v>
+        <v>SAMSUNG S25 Ultra 12+256</v>
       </c>
       <c r="F58" t="str">
         <v/>
       </c>
       <c r="G58" t="str">
-        <v>0</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2026-01-09 09:44:13</v>
+        <v>2026-01-09 12:01:42</v>
       </c>
       <c r="B59" t="str">
         <v>沙特</v>
       </c>
       <c r="C59" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D59" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</v>
+        <v>https://www.jarir.com/sa-en/apple-watch-ultra-3-smartwatch-666649.html</v>
       </c>
       <c r="E59" t="str">
-        <v>SAMSUNG S25 Ultra 12+256</v>
+        <v>APPLE Apple Watch Ultra 3 Black 49mm</v>
       </c>
       <c r="F59" t="str">
         <v/>
       </c>
       <c r="G59" t="str">
-        <v>3599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2026-01-09 09:44:18</v>
+        <v>2026-01-09 12:01:47</v>
       </c>
       <c r="B60" t="str">
         <v>沙特</v>
       </c>
       <c r="C60" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D60" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-5-42mm-smartwatch-657335.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</v>
       </c>
       <c r="E60" t="str">
-        <v>HUAWEI Huawei Watch 5 Beige 42mm</v>
+        <v>SAMSUNG S25 Ultra 12+512</v>
       </c>
       <c r="F60" t="str">
         <v/>
       </c>
       <c r="G60" t="str">
-        <v>1130</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2026-01-09 09:44:22</v>
+        <v>2026-01-09 12:01:57</v>
       </c>
       <c r="B61" t="str">
         <v>沙特</v>
       </c>
       <c r="C61" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D61" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-5-42mm-smartwatch-657335.html</v>
       </c>
       <c r="E61" t="str">
-        <v>SAMSUNG S25 Ultra 12+512</v>
+        <v>HUAWEI Huawei Watch 5 Beige 42mm</v>
       </c>
       <c r="F61" t="str">
         <v/>
       </c>
       <c r="G61" t="str">
-        <v>4099</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2026-01-09 09:44:34</v>
+        <v>2026-01-09 12:02:01</v>
       </c>
       <c r="B62" t="str">
         <v>沙特</v>
       </c>
       <c r="C62" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D62" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-5-46mm-smartwatch-657337.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</v>
       </c>
       <c r="E62" t="str">
-        <v>HUAWEI Huawei Watch 5 Black 46mm</v>
+        <v>SAMSUNG Z Fold 7 12+256</v>
       </c>
       <c r="F62" t="str">
         <v/>
       </c>
       <c r="G62" t="str">
-        <v>1130</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2026-01-09 09:44:42</v>
+        <v>2026-01-09 12:02:06</v>
       </c>
       <c r="B63" t="str">
         <v>沙特</v>
       </c>
       <c r="C63" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D63" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-5-46mm-smartwatch-657337.html</v>
       </c>
       <c r="E63" t="str">
-        <v>SAMSUNG Z Fold 7 12+256</v>
+        <v>HUAWEI Huawei Watch 5 Black 46mm</v>
       </c>
       <c r="F63" t="str">
         <v/>
       </c>
       <c r="G63" t="str">
-        <v>6899</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2026-01-09 09:44:54</v>
+        <v>2026-01-09 12:02:12</v>
       </c>
       <c r="B64" t="str">
         <v>沙特</v>
       </c>
       <c r="C64" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D64" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-d2-smartwatch-647407.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</v>
       </c>
       <c r="E64" t="str">
-        <v>HUAWEI Huawei Watch D2 Black</v>
+        <v>SAMSUNG Z Fold 7 12+512</v>
       </c>
       <c r="F64" t="str">
         <v/>
       </c>
       <c r="G64" t="str">
-        <v>1130</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2026-01-09 09:45:05</v>
+        <v>2026-01-09 12:02:17</v>
       </c>
       <c r="B65" t="str">
         <v>沙特</v>
       </c>
       <c r="C65" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D65" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</v>
+        <v>https://www.jarir.com/sa-en/huawei-d2-smartwatch-647407.html</v>
       </c>
       <c r="E65" t="str">
-        <v>SAMSUNG Z Fold 7 12+512</v>
+        <v>HUAWEI Huawei Watch D2 Black</v>
       </c>
       <c r="F65" t="str">
         <v/>
       </c>
       <c r="G65" t="str">
-        <v>7349</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2026-01-09 09:45:15</v>
+        <v>2026-01-09 12:02:23</v>
       </c>
       <c r="B66" t="str">
         <v>沙特</v>
       </c>
       <c r="C66" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D66" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657289.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
       </c>
       <c r="E66" t="str">
-        <v>HUAWEI Huawei Watch Fit 4 Black</v>
+        <v>XIAOMI 15T 12+256</v>
       </c>
       <c r="F66" t="str">
         <v/>
       </c>
       <c r="G66" t="str">
-        <v>373</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2026-01-09 09:45:22</v>
+        <v>2026-01-09 12:02:29</v>
       </c>
       <c r="B67" t="str">
         <v>沙特</v>
       </c>
       <c r="C67" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D67" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657289.html</v>
       </c>
       <c r="E67" t="str">
-        <v>XIAOMI 15T 12+256</v>
+        <v>HUAWEI Huawei Watch Fit 4 Black</v>
       </c>
       <c r="F67" t="str">
         <v/>
       </c>
       <c r="G67" t="str">
-        <v>1799</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2026-01-09 09:45:28</v>
+        <v>2026-01-09 12:02:40</v>
       </c>
       <c r="B68" t="str">
         <v>沙特</v>
       </c>
       <c r="C68" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D68" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657300.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
       </c>
       <c r="E68" t="str">
-        <v>HUAWEI Huawei Watch Fit 4 Purple</v>
+        <v>XIAOMI 15T Pro 12+512</v>
       </c>
       <c r="F68" t="str">
         <v/>
       </c>
       <c r="G68" t="str">
-        <v>373</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2026-01-09 09:45:40</v>
+        <v>2026-01-09 12:02:49</v>
       </c>
       <c r="B69" t="str">
         <v>沙特</v>
       </c>
       <c r="C69" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D69" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657300.html</v>
       </c>
       <c r="E69" t="str">
-        <v>XIAOMI 15T Pro 12+512</v>
+        <v>HUAWEI Huawei Watch Fit 4 Purple</v>
       </c>
       <c r="F69" t="str">
         <v/>
       </c>
       <c r="G69" t="str">
-        <v>2499</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2026-01-09 09:45:49</v>
+        <v>2026-01-09 12:02:54</v>
       </c>
       <c r="B70" t="str">
         <v>沙特</v>
       </c>
       <c r="C70" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D70" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657302.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</v>
       </c>
       <c r="E70" t="str">
-        <v>HUAWEI Huawei Watch Fit 4 Pro Black</v>
+        <v>XIAOMI Xiaomi 15 12+512</v>
       </c>
       <c r="F70" t="str">
         <v/>
       </c>
       <c r="G70" t="str">
-        <v>608</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2026-01-09 09:45:57</v>
+        <v>2026-01-09 12:02:59</v>
       </c>
       <c r="B71" t="str">
         <v>沙特</v>
       </c>
       <c r="C71" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D71" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657302.html</v>
       </c>
       <c r="E71" t="str">
-        <v>XIAOMI Xiaomi 15 12+512</v>
+        <v>HUAWEI Huawei Watch Fit 4 Pro Black</v>
       </c>
       <c r="F71" t="str">
         <v/>
       </c>
       <c r="G71" t="str">
-        <v>2799</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2026-01-09 09:46:12</v>
+        <v>2026-01-09 12:03:03</v>
       </c>
       <c r="B72" t="str">
         <v>沙特</v>
       </c>
       <c r="C72" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D72" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657313.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</v>
       </c>
       <c r="E72" t="str">
-        <v>HUAWEI Huawei Watch Fit 4 Pro Blue</v>
+        <v>XIAOMI Xiaomi 15 Ultra 12+512</v>
       </c>
       <c r="F72" t="str">
         <v/>
       </c>
       <c r="G72" t="str">
-        <v>608</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2026-01-09 09:46:22</v>
+        <v>2026-01-09 12:03:09</v>
       </c>
       <c r="B73" t="str">
         <v>沙特</v>
       </c>
       <c r="C73" t="str">
-        <v>Extra</v>
+        <v>Jarir</v>
       </c>
       <c r="D73" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657313.html</v>
       </c>
       <c r="E73" t="str">
-        <v>XIAOMI Xiaomi 15 Ultra 12+512</v>
+        <v>HUAWEI Huawei Watch Fit 4 Pro Blue</v>
       </c>
       <c r="F73" t="str">
         <v/>
       </c>
       <c r="G73" t="str">
-        <v>4099</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2026-01-09 09:46:33</v>
+        <v>2026-01-09 12:03:13</v>
       </c>
       <c r="B74" t="str">
         <v>沙特</v>
       </c>
       <c r="C74" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D74" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665667.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-13-inch-wi-fi-m5-space-black/p/100462899</v>
       </c>
       <c r="E74" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Black 41mm</v>
+        <v>APPLE iPad Pro M5 12+256，WiFi，13"</v>
       </c>
       <c r="F74" t="str">
         <v/>
       </c>
       <c r="G74" t="str">
-        <v>695</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2026-01-09 09:46:40</v>
+        <v>2026-01-09 12:03:20</v>
       </c>
       <c r="B75" t="str">
         <v>沙特</v>
@@ -2115,10 +2115,10 @@
         <v>Jarir</v>
       </c>
       <c r="D75" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665676.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665667.html</v>
       </c>
       <c r="E75" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Black 46mm</v>
+        <v>HUAWEI Huawei Watch GT 6 Black 41mm</v>
       </c>
       <c r="F75" t="str">
         <v/>
@@ -2129,30 +2129,30 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2026-01-09 09:46:50</v>
+        <v>2026-01-09 12:03:27</v>
       </c>
       <c r="B76" t="str">
         <v>沙特</v>
       </c>
       <c r="C76" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D76" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665674.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-11-inch-wi-fi-m5-space-black/p/100462894</v>
       </c>
       <c r="E76" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Brown 41mm</v>
+        <v>APPLE iPad Pro M5 12+256，WiFi，11"</v>
       </c>
       <c r="F76" t="str">
         <v/>
       </c>
       <c r="G76" t="str">
-        <v>695</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2026-01-09 09:47:00</v>
+        <v>2026-01-09 12:03:33</v>
       </c>
       <c r="B77" t="str">
         <v>沙特</v>
@@ -2161,10 +2161,10 @@
         <v>Jarir</v>
       </c>
       <c r="D77" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665681.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665676.html</v>
       </c>
       <c r="E77" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Green 46mm</v>
+        <v>HUAWEI Huawei Watch GT 6 Black 46mm</v>
       </c>
       <c r="F77" t="str">
         <v/>
@@ -2175,30 +2175,30 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2026-01-09 09:47:10</v>
+        <v>2026-01-09 12:03:43</v>
       </c>
       <c r="B78" t="str">
         <v>沙特</v>
       </c>
       <c r="C78" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D78" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665677.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-ultra-wi-fi-256-gb-platinum-silver/p/100385464</v>
       </c>
       <c r="E78" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Grey 46mm</v>
+        <v>SAMSUNG Galaxy Tab S10 Ultra 12+256，WiFi，14.6"</v>
       </c>
       <c r="F78" t="str">
         <v/>
       </c>
       <c r="G78" t="str">
-        <v>695</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2026-01-09 09:47:32</v>
+        <v>2026-01-09 12:03:54</v>
       </c>
       <c r="B79" t="str">
         <v>沙特</v>
@@ -2207,44 +2207,44 @@
         <v>Jarir</v>
       </c>
       <c r="D79" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665684.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665674.html</v>
       </c>
       <c r="E79" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Pro Black 46mm</v>
+        <v>HUAWEI Huawei Watch GT 6 Brown 41mm</v>
       </c>
       <c r="F79" t="str">
         <v/>
       </c>
       <c r="G79" t="str">
-        <v>1043</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2026-01-09 09:47:39</v>
+        <v>2026-01-09 12:04:00</v>
       </c>
       <c r="B80" t="str">
         <v>沙特</v>
       </c>
       <c r="C80" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D80" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665689.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-256-gb-silver/p/100401433</v>
       </c>
       <c r="E80" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Pro Brown 46mm</v>
+        <v>SAMSUNG Galaxy Tab S10 FE+ 12+256，WiFi，13.1"</v>
       </c>
       <c r="F80" t="str">
         <v/>
       </c>
       <c r="G80" t="str">
-        <v>1043</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2026-01-09 09:47:44</v>
+        <v>2026-01-09 12:04:03</v>
       </c>
       <c r="B81" t="str">
         <v>沙特</v>
@@ -2253,44 +2253,44 @@
         <v>Jarir</v>
       </c>
       <c r="D81" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665688.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665681.html</v>
       </c>
       <c r="E81" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Pro Titanium 46mm</v>
+        <v>HUAWEI Huawei Watch GT 6 Green 46mm</v>
       </c>
       <c r="F81" t="str">
         <v/>
       </c>
       <c r="G81" t="str">
-        <v>1303</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2026-01-09 09:47:55</v>
+        <v>2026-01-09 12:04:08</v>
       </c>
       <c r="B82" t="str">
         <v>沙特</v>
       </c>
       <c r="C82" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D82" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665671.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-plus-wi-fi-256-gb-moonstone-gray/p/100385459</v>
       </c>
       <c r="E82" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Purple 41mm</v>
+        <v>SAMSUNG Galaxy Tab S10+ 12+256，WiFi，12.4"</v>
       </c>
       <c r="F82" t="str">
         <v/>
       </c>
       <c r="G82" t="str">
-        <v>695</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2026-01-09 09:48:04</v>
+        <v>2026-01-09 12:04:18</v>
       </c>
       <c r="B83" t="str">
         <v>沙特</v>
@@ -2299,10 +2299,10 @@
         <v>Jarir</v>
       </c>
       <c r="D83" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665672.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665677.html</v>
       </c>
       <c r="E83" t="str">
-        <v>HUAWEI Huawei Watch GT 6 White 41mm</v>
+        <v>HUAWEI Huawei Watch GT 6 Grey 46mm</v>
       </c>
       <c r="F83" t="str">
         <v/>
@@ -2313,30 +2313,30 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2026-01-09 09:48:18</v>
+        <v>2026-01-09 12:04:23</v>
       </c>
       <c r="B84" t="str">
         <v>沙特</v>
       </c>
       <c r="C84" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D84" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-ultimate-2-smartwatch-670486.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-3-wi-fi-512-gb-13-3-inch-gray/p/100470651</v>
       </c>
       <c r="E84" t="str">
-        <v>HUAWEI Huawei Watch Ultimate 2 Black</v>
+        <v>HONOR Magic Pad3 12+512 带键盘带笔，WiFi，13.3"</v>
       </c>
       <c r="F84" t="str">
         <v/>
       </c>
       <c r="G84" t="str">
-        <v>0</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2026-01-09 09:48:27</v>
+        <v>2026-01-09 12:04:29</v>
       </c>
       <c r="B85" t="str">
         <v>沙特</v>
@@ -2345,44 +2345,44 @@
         <v>Jarir</v>
       </c>
       <c r="D85" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-active-smartwatch-642243.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665684.html</v>
       </c>
       <c r="E85" t="str">
-        <v>REDMI Redmi Watch 5 Active Black</v>
+        <v>HUAWEI Huawei Watch GT 6 Pro Black 46mm</v>
       </c>
       <c r="F85" t="str">
         <v/>
       </c>
       <c r="G85" t="str">
-        <v>112</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2026-01-09 09:48:38</v>
+        <v>2026-01-09 12:04:35</v>
       </c>
       <c r="B86" t="str">
         <v>沙特</v>
       </c>
       <c r="C86" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D86" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-smartwatch-649129.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-2-wi-fi-12-3-inch-oled-256gb-white-with-keyboard-pen/p/100382993</v>
       </c>
       <c r="E86" t="str">
-        <v>REDMI Redmi Watch 5 Black</v>
+        <v>HONOR Magic Pad2 12+256 带键盘带笔，WiFi，12.3"</v>
       </c>
       <c r="F86" t="str">
         <v/>
       </c>
       <c r="G86" t="str">
-        <v>303</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2026-01-09 09:48:48</v>
+        <v>2026-01-09 12:04:44</v>
       </c>
       <c r="B87" t="str">
         <v>沙特</v>
@@ -2391,44 +2391,44 @@
         <v>Jarir</v>
       </c>
       <c r="D87" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-lite-smartwatch-642245.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665689.html</v>
       </c>
       <c r="E87" t="str">
-        <v>REDMI Redmi Watch 5 Lite Black</v>
+        <v>HUAWEI Huawei Watch GT 6 Pro Brown 46mm</v>
       </c>
       <c r="F87" t="str">
         <v/>
       </c>
       <c r="G87" t="str">
-        <v>164</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2026-01-09 09:48:57</v>
+        <v>2026-01-09 12:04:52</v>
       </c>
       <c r="B88" t="str">
         <v>沙特</v>
       </c>
       <c r="C88" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D88" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-3-smartwatch-634727.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-256gb-space-grey/p/100396456</v>
       </c>
       <c r="E88" t="str">
-        <v>SAMSUNG Galaxy Fit 3 Black</v>
+        <v>APPLE iPad Air M3 8+256，WiFi，11"</v>
       </c>
       <c r="F88" t="str">
         <v/>
       </c>
       <c r="G88" t="str">
-        <v>503</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2026-01-09 09:49:07</v>
+        <v>2026-01-09 12:05:03</v>
       </c>
       <c r="B89" t="str">
         <v>沙特</v>
@@ -2437,44 +2437,44 @@
         <v>Jarir</v>
       </c>
       <c r="D89" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-fit-3-smartwatch-631631.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665688.html</v>
       </c>
       <c r="E89" t="str">
-        <v>SAMSUNG Galaxy Fit 3 Gray</v>
+        <v>HUAWEI Huawei Watch GT 6 Pro Titanium 46mm</v>
       </c>
       <c r="F89" t="str">
         <v/>
       </c>
       <c r="G89" t="str">
-        <v>130</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2026-01-09 09:49:14</v>
+        <v>2026-01-09 12:05:13</v>
       </c>
       <c r="B90" t="str">
         <v>沙特</v>
       </c>
       <c r="C90" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D90" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch8-classic-46-smartwatch-662010.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-128gb-space-grey/p/100396462</v>
       </c>
       <c r="E90" t="str">
-        <v>SAMSUNG Galaxy Watch8 Classic Black 46mm</v>
+        <v>APPLE iPad Air M3 8+128，WiFi，11"</v>
       </c>
       <c r="F90" t="str">
         <v/>
       </c>
       <c r="G90" t="str">
-        <v>1303</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2026-01-09 09:49:25</v>
+        <v>2026-01-09 12:05:21</v>
       </c>
       <c r="B91" t="str">
         <v>沙特</v>
@@ -2483,44 +2483,44 @@
         <v>Jarir</v>
       </c>
       <c r="D91" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662006.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665671.html</v>
       </c>
       <c r="E91" t="str">
-        <v>SAMSUNG Galaxy Watch8 Gray 44mm</v>
+        <v>HUAWEI Huawei Watch GT 6 Purple 41mm</v>
       </c>
       <c r="F91" t="str">
         <v/>
       </c>
       <c r="G91" t="str">
-        <v>956</v>
+        <v>695</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2026-01-09 09:49:32</v>
+        <v>2026-01-09 12:05:30</v>
       </c>
       <c r="B92" t="str">
         <v>沙特</v>
       </c>
       <c r="C92" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D92" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662000.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-11th-gen-wi-fi-cellular-11-inch-128gb-silver/p/100396435</v>
       </c>
       <c r="E92" t="str">
-        <v>SAMSUNG Galaxy Watch8 Graphite 40mm</v>
+        <v>APPLE  iPad A16 6+128，LTE，11“</v>
       </c>
       <c r="F92" t="str">
         <v/>
       </c>
       <c r="G92" t="str">
-        <v>869</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2026-01-09 09:49:40</v>
+        <v>2026-01-09 12:05:39</v>
       </c>
       <c r="B93" t="str">
         <v>沙特</v>
@@ -2529,44 +2529,1102 @@
         <v>Jarir</v>
       </c>
       <c r="D93" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662008.html</v>
+        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665672.html</v>
       </c>
       <c r="E93" t="str">
-        <v>SAMSUNG Galaxy Watch8 White 44mm</v>
+        <v>HUAWEI Huawei Watch GT 6 White 41mm</v>
       </c>
       <c r="F93" t="str">
         <v/>
       </c>
       <c r="G93" t="str">
-        <v>956</v>
+        <v>695</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2026-01-09 09:49:53</v>
+        <v>2026-01-09 12:05:45</v>
       </c>
       <c r="B94" t="str">
         <v>沙特</v>
       </c>
       <c r="C94" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D94" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-128-gb-gray/p/100401425</v>
+      </c>
+      <c r="E94" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE+ 8+128，WiFi，13.1"</v>
+      </c>
+      <c r="F94" t="str">
+        <v/>
+      </c>
+      <c r="G94" t="str">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>2026-01-09 12:05:52</v>
+      </c>
+      <c r="B95" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D95" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-watch-ultimate-2-smartwatch-670486.html</v>
+      </c>
+      <c r="E95" t="str">
+        <v>HUAWEI Huawei Watch Ultimate 2 Black</v>
+      </c>
+      <c r="F95" t="str">
+        <v/>
+      </c>
+      <c r="G95" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>2026-01-09 12:06:03</v>
+      </c>
+      <c r="B96" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D96" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-128gb-space-grey/p/100347381</v>
+      </c>
+      <c r="E96" t="str">
+        <v>APPLE iPad mini 8+128，WiFi，8.3"</v>
+      </c>
+      <c r="F96" t="str">
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>2026-01-09 12:06:13</v>
+      </c>
+      <c r="B97" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D97" t="str">
+        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-active-smartwatch-642243.html</v>
+      </c>
+      <c r="E97" t="str">
+        <v>REDMI Redmi Watch 5 Active Black</v>
+      </c>
+      <c r="F97" t="str">
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>2026-01-09 12:06:22</v>
+      </c>
+      <c r="B98" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D98" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</v>
+      </c>
+      <c r="E98" t="str">
+        <v>APPLE iPad mini 8+256，WiFi，8.3"</v>
+      </c>
+      <c r="F98" t="str">
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>2026-01-09 12:06:30</v>
+      </c>
+      <c r="B99" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D99" t="str">
+        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-smartwatch-649129.html</v>
+      </c>
+      <c r="E99" t="str">
+        <v>REDMI Redmi Watch 5 Black</v>
+      </c>
+      <c r="F99" t="str">
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>2026-01-09 12:06:33</v>
+      </c>
+      <c r="B100" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D100" t="str">
+        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-lite-smartwatch-642245.html</v>
+      </c>
+      <c r="E100" t="str">
+        <v>REDMI Redmi Watch 5 Lite Black</v>
+      </c>
+      <c r="F100" t="str">
+        <v/>
+      </c>
+      <c r="G100" t="str">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>2026-01-09 12:06:38</v>
+      </c>
+      <c r="B101" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D101" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-watch-fit-3-smartwatch-634727.html</v>
+      </c>
+      <c r="E101" t="str">
+        <v>SAMSUNG Galaxy Fit 3 Black</v>
+      </c>
+      <c r="F101" t="str">
+        <v/>
+      </c>
+      <c r="G101" t="str">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>2026-01-09 12:06:47</v>
+      </c>
+      <c r="B102" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D102" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-fit-3-smartwatch-631631.html</v>
+      </c>
+      <c r="E102" t="str">
+        <v>SAMSUNG Galaxy Fit 3 Gray</v>
+      </c>
+      <c r="F102" t="str">
+        <v/>
+      </c>
+      <c r="G102" t="str">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>2026-01-09 12:06:51</v>
+      </c>
+      <c r="B103" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D103" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch8-classic-46-smartwatch-662010.html</v>
+      </c>
+      <c r="E103" t="str">
+        <v>SAMSUNG Galaxy Watch8 Classic Black 46mm</v>
+      </c>
+      <c r="F103" t="str">
+        <v/>
+      </c>
+      <c r="G103" t="str">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>2026-01-09 12:07:02</v>
+      </c>
+      <c r="B104" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D104" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662006.html</v>
+      </c>
+      <c r="E104" t="str">
+        <v>SAMSUNG Galaxy Watch8 Gray 44mm</v>
+      </c>
+      <c r="F104" t="str">
+        <v/>
+      </c>
+      <c r="G104" t="str">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>2026-01-09 12:07:08</v>
+      </c>
+      <c r="B105" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D105" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662000.html</v>
+      </c>
+      <c r="E105" t="str">
+        <v>SAMSUNG Galaxy Watch8 Graphite 40mm</v>
+      </c>
+      <c r="F105" t="str">
+        <v/>
+      </c>
+      <c r="G105" t="str">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>2026-01-09 12:07:16</v>
+      </c>
+      <c r="B106" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D106" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662008.html</v>
+      </c>
+      <c r="E106" t="str">
+        <v>SAMSUNG Galaxy Watch8 White 44mm</v>
+      </c>
+      <c r="F106" t="str">
+        <v/>
+      </c>
+      <c r="G106" t="str">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>2026-01-09 12:07:27</v>
+      </c>
+      <c r="B107" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D107" t="str">
         <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662002.html</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E107" t="str">
         <v>SAMSUNG Galaxy Watch8 White 40mm</v>
       </c>
-      <c r="F94" t="str">
-        <v/>
-      </c>
-      <c r="G94" t="str">
+      <c r="F107" t="str">
+        <v/>
+      </c>
+      <c r="G107" t="str">
         <v>869</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>2026-01-09 12:07:36</v>
+      </c>
+      <c r="B108" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D108" t="str">
+        <v>https://www.jarir.com/sa-en/honor-pad-x9a-tablet-pc-655531.html</v>
+      </c>
+      <c r="E108" t="str">
+        <v>HONOR Honor Pad X9A 8+128 皮套，WiFi，11.5"</v>
+      </c>
+      <c r="F108" t="str">
+        <v/>
+      </c>
+      <c r="G108" t="str">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>2026-01-09 12:07:46</v>
+      </c>
+      <c r="B109" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D109" t="str">
+        <v>https://www.jarir.com/sa-en/honor-tablet-pc-640649.html</v>
+      </c>
+      <c r="E109" t="str">
+        <v>HONOR Honor Pad X8A 4+128 皮套，WiFi，11"</v>
+      </c>
+      <c r="F109" t="str">
+        <v/>
+      </c>
+      <c r="G109" t="str">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>2026-01-09 12:07:51</v>
+      </c>
+      <c r="B110" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D110" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670881.html</v>
+      </c>
+      <c r="E110" t="str">
+        <v>SAMSUNG Galaxy Tab A11+ 6+128</v>
+      </c>
+      <c r="F110" t="str">
+        <v/>
+      </c>
+      <c r="G110" t="str">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>2026-01-09 12:08:01</v>
+      </c>
+      <c r="B111" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D111" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670891.html</v>
+      </c>
+      <c r="E111" t="str">
+        <v>SAMSUNG Galaxy Tab A11+ 8+256</v>
+      </c>
+      <c r="F111" t="str">
+        <v/>
+      </c>
+      <c r="G111" t="str">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>2026-01-09 12:08:09</v>
+      </c>
+      <c r="B112" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D112" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-a9-tablet-pc-661473.html</v>
+      </c>
+      <c r="E112" t="str">
+        <v>SAMSUNG Galaxy Tab A9+ 8+128，WiFi，11”</v>
+      </c>
+      <c r="F112" t="str">
+        <v/>
+      </c>
+      <c r="G112" t="str">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>2026-01-09 12:08:20</v>
+      </c>
+      <c r="B113" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D113" t="str">
+        <v>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654179.html</v>
+      </c>
+      <c r="E113" t="str">
+        <v>APPLE  iPad A16 6+128，WiFi，11"</v>
+      </c>
+      <c r="F113" t="str">
+        <v/>
+      </c>
+      <c r="G113" t="str">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>2026-01-09 12:08:27</v>
+      </c>
+      <c r="B114" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D114" t="str">
+        <v>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654188.html</v>
+      </c>
+      <c r="E114" t="str">
+        <v>APPLE  iPad A16 8+256，WiFi，11"</v>
+      </c>
+      <c r="F114" t="str">
+        <v/>
+      </c>
+      <c r="G114" t="str">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>2026-01-09 12:08:35</v>
+      </c>
+      <c r="B115" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D115" t="str">
+        <v>https://www.jarir.com/sa-en/xiaomi-xiaomi-pad-7-tablet-pc-653920.html</v>
+      </c>
+      <c r="E115" t="str">
+        <v>XIAOMI Xiaomi Pad 7 8+256 带皮套，WiFi，11.16"</v>
+      </c>
+      <c r="F115" t="str">
+        <v/>
+      </c>
+      <c r="G115" t="str">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>2026-01-09 12:08:47</v>
+      </c>
+      <c r="B116" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D116" t="str">
+        <v>https://www.jarir.com/sa-en/honor-tablet-pc-641860.html</v>
+      </c>
+      <c r="E116" t="str">
+        <v>HONOR Magic Pad2 12+256，WiFi，12.3"</v>
+      </c>
+      <c r="F116" t="str">
+        <v/>
+      </c>
+      <c r="G116" t="str">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>2026-01-09 12:08:56</v>
+      </c>
+      <c r="B117" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D117" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656238.html</v>
+      </c>
+      <c r="E117" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE+ 8+128 带笔，WiFi，10.9"</v>
+      </c>
+      <c r="F117" t="str">
+        <v/>
+      </c>
+      <c r="G117" t="str">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>2026-01-09 12:09:07</v>
+      </c>
+      <c r="B118" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D118" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656240.html</v>
+      </c>
+      <c r="E118" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE+ 8+256 带笔，WiFi，10.9"</v>
+      </c>
+      <c r="F118" t="str">
+        <v/>
+      </c>
+      <c r="G118" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>2026-01-09 12:09:16</v>
+      </c>
+      <c r="B119" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D119" t="str">
+        <v>https://www.jarir.com/sa-en/honor-pad-10-papermatte-tablet-pc-663880.html</v>
+      </c>
+      <c r="E119" t="str">
+        <v>HONOR Honor Pad 10 8+256 带笔键，柔光，WiFi，12.1"</v>
+      </c>
+      <c r="F119" t="str">
+        <v/>
+      </c>
+      <c r="G119" t="str">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>2026-01-09 12:09:27</v>
+      </c>
+      <c r="B120" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D120" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656224.html</v>
+      </c>
+      <c r="E120" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE 12+256 带笔，WiFi，10.9"</v>
+      </c>
+      <c r="F120" t="str">
+        <v/>
+      </c>
+      <c r="G120" t="str">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>2026-01-09 12:09:37</v>
+      </c>
+      <c r="B121" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D121" t="str">
+        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656188.html</v>
+      </c>
+      <c r="E121" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE 8+128 带笔，WiFi，10.9"</v>
+      </c>
+      <c r="F121" t="str">
+        <v/>
+      </c>
+      <c r="G121" t="str">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>2026-01-09 12:10:09</v>
+      </c>
+      <c r="B122" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D122" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-laptops-638524.html</v>
+      </c>
+      <c r="E122" t="str">
+        <v>HUAWEI MateBook 14 U7-155H，16GB，1TB，Win11，2880×1920</v>
+      </c>
+      <c r="F122" t="str">
+        <v/>
+      </c>
+      <c r="G122" t="str">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>2026-01-09 12:10:18</v>
+      </c>
+      <c r="B123" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D123" t="str">
+        <v>https://www.jarir.com/sa-en/asus-laptops-642879.html</v>
+      </c>
+      <c r="E123" t="str">
+        <v>ASUS ZenBook 14 R7 8840HS，16GB，1TB，Win11，2880 x 1800‌</v>
+      </c>
+      <c r="F123" t="str">
+        <v/>
+      </c>
+      <c r="G123" t="str">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>2026-01-09 12:10:24</v>
+      </c>
+      <c r="B124" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D124" t="str">
+        <v>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654298.html</v>
+      </c>
+      <c r="E124" t="str">
+        <v>APPLE MacBook Air 15 M4，16GB，512GB，macOS，2880×1864</v>
+      </c>
+      <c r="F124" t="str">
+        <v/>
+      </c>
+      <c r="G124" t="str">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>2026-01-09 12:10:35</v>
+      </c>
+      <c r="B125" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D125" t="str">
+        <v>https://www.jarir.com/sa-en/honor-magicbook-art-laptops-665780.html</v>
+      </c>
+      <c r="E125" t="str">
+        <v>HONOR MagicBook Art 14 U7-255H，32GB，1TB，Win11，3120×2080</v>
+      </c>
+      <c r="F125" t="str">
+        <v/>
+      </c>
+      <c r="G125" t="str">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>2026-01-09 12:10:44</v>
+      </c>
+      <c r="B126" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D126" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-laptops-631440.html</v>
+      </c>
+      <c r="E126" t="str">
+        <v>HUAWEI MateBook 14 i5-13420H，16GB，512GB，Win11，1920×1200</v>
+      </c>
+      <c r="F126" t="str">
+        <v/>
+      </c>
+      <c r="G126" t="str">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>2026-01-09 12:10:49</v>
+      </c>
+      <c r="B127" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D127" t="str">
+        <v>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654289.html</v>
+      </c>
+      <c r="E127" t="str">
+        <v>APPLE MacBook Air 13  M4，16GB，512GB，macOS，2560×1664</v>
+      </c>
+      <c r="F127" t="str">
+        <v/>
+      </c>
+      <c r="G127" t="str">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>2026-01-09 12:11:00</v>
+      </c>
+      <c r="B128" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D128" t="str">
+        <v>https://www.jarir.com/sa-en/lenovo-ideapad-pro-5-laptops-631066.html</v>
+      </c>
+      <c r="E128" t="str">
+        <v>LENOVO IdeaPad Pro 5 U7-155H，16GB，512GB，Win11，2048 X 1280</v>
+      </c>
+      <c r="F128" t="str">
+        <v/>
+      </c>
+      <c r="G128" t="str">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>2026-01-09 12:11:13</v>
+      </c>
+      <c r="B129" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D129" t="str">
+        <v>https://www.jarir.com/sa-en/hp-pavilion-laptops-641161.html</v>
+      </c>
+      <c r="E129" t="str">
+        <v>HP HP Pavilion 16 U7-155U，16GB 1TB，Win11，1920x1200</v>
+      </c>
+      <c r="F129" t="str">
+        <v/>
+      </c>
+      <c r="G129" t="str">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>2026-01-09 12:11:25</v>
+      </c>
+      <c r="B130" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D130" t="str">
+        <v>https://www.jarir.com/sa-en/asus-asus-vivobook-s16-laptops-666555.html</v>
+      </c>
+      <c r="E130" t="str">
+        <v>ASUS Vivobook S16 i7-13620H，16GB，1TB，Win11，1920×1200</v>
+      </c>
+      <c r="F130" t="str">
+        <v/>
+      </c>
+      <c r="G130" t="str">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>2026-01-09 12:11:31</v>
+      </c>
+      <c r="B131" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D131" t="str">
+        <v>https://www.jarir.com/sa-en/honor-magicbook-pro-laptops-657780.html</v>
+      </c>
+      <c r="E131" t="str">
+        <v>HONOR MagicBook Pro 14 U5-225H，32GB，1TB，Win11，3120×2080</v>
+      </c>
+      <c r="F131" t="str">
+        <v/>
+      </c>
+      <c r="G131" t="str">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>2026-01-09 12:11:42</v>
+      </c>
+      <c r="B132" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D132" t="str">
+        <v>https://www.jarir.com/sa-en/honor-magicbook-x14-laptops-663706.html</v>
+      </c>
+      <c r="E132" t="str">
+        <v>HONOR MagicBook X 14 i5-13420H，16GB，512GB，Win11，1920×1200</v>
+      </c>
+      <c r="F132" t="str">
+        <v/>
+      </c>
+      <c r="G132" t="str">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>2026-01-09 12:11:53</v>
+      </c>
+      <c r="B133" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D133" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-laptops-631589.html</v>
+      </c>
+      <c r="E133" t="str">
+        <v>HUAWEI MateBook D 14 i5-12450H，16GB，512GB，Win11，1920×1200</v>
+      </c>
+      <c r="F133" t="str">
+        <v/>
+      </c>
+      <c r="G133" t="str">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>2026-01-09 12:12:02</v>
+      </c>
+      <c r="B134" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D134" t="str">
+        <v>https://www.jarir.com/sa-en/lenovo-laptops-657126.html</v>
+      </c>
+      <c r="E134" t="str">
+        <v>LENOVO IdeaPad Slim 5 14 i7-13620H，24GB，1TB，Win11，1920×1200</v>
+      </c>
+      <c r="F134" t="str">
+        <v/>
+      </c>
+      <c r="G134" t="str">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>2026-01-09 12:12:12</v>
+      </c>
+      <c r="B135" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D135" t="str">
+        <v>https://www.jarir.com/sa-en/hp-pavilion-plus-laptops-634893.html</v>
+      </c>
+      <c r="E135" t="str">
+        <v>HP HP Pavilion Plus 14 U5-125H，16GB，512GB，Win11，2880×1800</v>
+      </c>
+      <c r="F135" t="str">
+        <v/>
+      </c>
+      <c r="G135" t="str">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>2026-01-09 12:12:21</v>
+      </c>
+      <c r="B136" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D136" t="str">
+        <v>https://www.jarir.com/sa-en/lenovo-ideapad-slim-5-laptops-646812.html</v>
+      </c>
+      <c r="E136" t="str">
+        <v>LENOVO IdeaPad Slim 5 14 Snapdragon X Plus，16GB，1TB，Win11，1920×1200‌</v>
+      </c>
+      <c r="F136" t="str">
+        <v/>
+      </c>
+      <c r="G136" t="str">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>2026-01-09 12:12:32</v>
+      </c>
+      <c r="B137" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D137" t="str">
+        <v>https://www.jarir.com/sa-en/huawei-laptops-632176.html</v>
+      </c>
+      <c r="E137" t="str">
+        <v>HUAWEI MateBook D 16 i5-13420H，16GB 512GB，Win11，1920×1200</v>
+      </c>
+      <c r="F137" t="str">
+        <v/>
+      </c>
+      <c r="G137" t="str">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>2026-01-09 12:12:41</v>
+      </c>
+      <c r="B138" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D138" t="str">
+        <v>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-653502.html</v>
+      </c>
+      <c r="E138" t="str">
+        <v>LENOVO IdeaPad Slim 3 15.3 i7-13620H，16GB，1TB，Win11，1920×1200</v>
+      </c>
+      <c r="F138" t="str">
+        <v/>
+      </c>
+      <c r="G138" t="str">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>2026-01-09 12:12:47</v>
+      </c>
+      <c r="B139" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D139" t="str">
+        <v>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-623278.html</v>
+      </c>
+      <c r="E139" t="str">
+        <v>LENOVO IdeaPad Slim 3 15.3 i5-13420H，16GB，1TB，Win11，1920 X 1080</v>
+      </c>
+      <c r="F139" t="str">
+        <v/>
+      </c>
+      <c r="G139" t="str">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>2026-01-09 12:12:55</v>
+      </c>
+      <c r="B140" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Jarir</v>
+      </c>
+      <c r="D140" t="str">
+        <v>https://www.jarir.com/sa-en/hp-laptops-654667.html</v>
+      </c>
+      <c r="E140" t="str">
+        <v>HP HP 15 15.6 i7-1355U，16GB，512GB，Win11，1920×1080</v>
+      </c>
+      <c r="F140" t="str">
+        <v/>
+      </c>
+      <c r="G140" t="str">
+        <v>2347</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G94"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G140"/>
   </ignoredErrors>
 </worksheet>
 </file>